--- a/Grid Builder/Grid Builder.xlsx
+++ b/Grid Builder/Grid Builder.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samdi\Documents\GitHub\Munchkin\Grid Builder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s6088717\Documents\GitHub\FinalYearProject\Grid Builder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAD72C6-2125-465B-B081-E675A1899244}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="29025" windowHeight="17625"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,12 +29,6 @@
     <t>Void</t>
   </si>
   <si>
-    <t>Walkable</t>
-  </si>
-  <si>
-    <t>Obstacle</t>
-  </si>
-  <si>
     <t>Melee Enemy</t>
   </si>
   <si>
@@ -55,12 +48,18 @@
   </si>
   <si>
     <t>&lt; Entry</t>
+  </si>
+  <si>
+    <t>Wall</t>
+  </si>
+  <si>
+    <t>Empty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -78,7 +77,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -87,30 +86,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -126,77 +103,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -208,8 +124,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -218,31 +134,31 @@
   <dxfs count="14">
     <dxf>
       <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -260,61 +176,61 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="0.79998168889431442"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="0.79998168889431442"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -332,31 +248,31 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -635,270 +551,270 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="20.54296875" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2">
-        <v>1</v>
-      </c>
-      <c r="G1" s="3">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="J1" s="10">
+    <row r="1" spans="1:12" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6">
+        <v>2</v>
+      </c>
+      <c r="F1" s="6">
+        <v>2</v>
+      </c>
+      <c r="G1" s="6">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="J1" s="3">
         <v>0</v>
       </c>
-      <c r="K1" s="5">
+      <c r="K1" s="2">
         <v>0</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
+    <row r="2" spans="1:12" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="J3" s="3">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2">
+        <v>2</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="3">
         <v>3</v>
       </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="K4" s="2">
         <v>3</v>
       </c>
-      <c r="E2" s="5">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-      <c r="G2" s="6">
-        <v>1</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="J2" s="10">
-        <v>1</v>
-      </c>
-      <c r="K2" s="5">
-        <v>1</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="L4" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
+    <row r="5" spans="1:12" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6">
         <v>0</v>
       </c>
-      <c r="G3" s="6">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="J3" s="10">
-        <v>2</v>
-      </c>
-      <c r="K3" s="5">
-        <v>2</v>
-      </c>
-      <c r="L3" s="11" t="s">
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="J5" s="3">
+        <v>4</v>
+      </c>
+      <c r="K5" s="2">
+        <v>4</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
+    <row r="6" spans="1:12" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="J6" s="3">
+        <v>5</v>
+      </c>
+      <c r="K6" s="2">
+        <v>5</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="10">
-        <v>3</v>
-      </c>
-      <c r="K4" s="5">
-        <v>3</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="5" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="J5" s="10">
+    <row r="7" spans="1:12" ht="63.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2</v>
+      </c>
+      <c r="G7" s="6">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="J7" s="3">
+        <v>6</v>
+      </c>
+      <c r="K7" s="2">
+        <v>6</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="5">
-        <v>4</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="6" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5">
-        <v>2</v>
-      </c>
-      <c r="E6" s="5">
-        <v>2</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="J6" s="10">
+    <row r="8" spans="1:12" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="2"/>
+      <c r="J8" s="3">
+        <v>7</v>
+      </c>
+      <c r="K8" s="2">
+        <v>7</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="K6" s="5">
-        <v>5</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="64" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="7">
-        <v>1</v>
-      </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8">
-        <v>4</v>
-      </c>
-      <c r="E7" s="8">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>1</v>
-      </c>
-      <c r="G7" s="9">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="J7" s="10">
-        <v>6</v>
-      </c>
-      <c r="K7" s="5">
-        <v>6</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="5"/>
-      <c r="J8" s="10">
-        <v>7</v>
-      </c>
-      <c r="K8" s="5">
-        <v>7</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -906,50 +822,50 @@
     <mergeCell ref="A8:G8"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:G7">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="11" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K8">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
